--- a/data/chap6/6.1.xlsx
+++ b/data/chap6/6.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\chap6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677BD80F-D191-4F55-A41D-6000F644F4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A54D62-A111-4251-90EC-479ADC8DC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="828" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="828" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="89" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -100,9 +100,6 @@
     <t>销售额</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>时间</t>
   </si>
   <si>
@@ -456,6 +453,10 @@
   </si>
   <si>
     <t>岗位编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,31 +613,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,10 +637,7 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,72 +740,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFE96137"/>
       <color rgb="FF00A4DC"/>
@@ -850,7 +770,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1043,28 +963,28 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="6" customWidth="1"/>
-    <col min="9" max="10" width="2.6328125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="7.26953125" style="6"/>
+    <col min="1" max="1" width="12" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="5" customWidth="1"/>
+    <col min="9" max="10" width="2.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="7.21875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>128</v>
+    <row r="1" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1087,28 +1007,28 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>129</v>
+      <c r="K1" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>79</v>
+    <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>75</v>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="3">
         <v>5000</v>
@@ -1119,26 +1039,29 @@
       <c r="H2" s="3">
         <v>11564</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="3">
+        <f>_xlfn.XLOOKUP(K2,A:A,H:H,)</f>
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="3">
         <v>6000</v>
@@ -1150,21 +1073,21 @@
         <v>9858</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>81</v>
+    <row r="4" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>75</v>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="3">
         <v>5500</v>
@@ -1176,21 +1099,21 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>82</v>
+    <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>75</v>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="3">
         <v>5000</v>
@@ -1202,21 +1125,21 @@
         <v>11433</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>83</v>
+    <row r="6" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>75</v>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="3">
         <v>4500</v>
@@ -1228,21 +1151,21 @@
         <v>7394</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>84</v>
+    <row r="7" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>75</v>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="3">
         <v>4000</v>
@@ -1254,21 +1177,21 @@
         <v>11630</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>85</v>
+    <row r="8" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="3">
         <v>3800</v>
@@ -1280,21 +1203,21 @@
         <v>11473</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>86</v>
+    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>76</v>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="3">
         <v>3600</v>
@@ -1306,21 +1229,21 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>87</v>
+    <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="3">
         <v>3700</v>
@@ -1332,21 +1255,21 @@
         <v>4749</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>88</v>
+    <row r="11" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="3">
         <v>3500</v>
@@ -1358,21 +1281,21 @@
         <v>9393</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>89</v>
+    <row r="12" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>76</v>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="3">
         <v>3900</v>
@@ -1384,21 +1307,21 @@
         <v>7349</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>90</v>
+    <row r="13" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="3">
         <v>3500</v>
@@ -1410,21 +1333,21 @@
         <v>9047</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>91</v>
+    <row r="14" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>77</v>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="3">
         <v>3300</v>
@@ -1436,21 +1359,21 @@
         <v>8771</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>92</v>
+    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>77</v>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F15" s="3">
         <v>3200</v>
@@ -1462,21 +1385,21 @@
         <v>5122</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>93</v>
+    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>77</v>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="3">
         <v>3000</v>
@@ -1488,21 +1411,21 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>94</v>
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="3">
         <v>4400</v>
@@ -1514,21 +1437,21 @@
         <v>9532</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>95</v>
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>75</v>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="3">
         <v>3600</v>
@@ -1540,21 +1463,21 @@
         <v>9783</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>96</v>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>75</v>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="3">
         <v>4200</v>
@@ -1566,21 +1489,21 @@
         <v>8036</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>97</v>
+    <row r="20" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="3">
         <v>4700</v>
@@ -1592,21 +1515,21 @@
         <v>12341</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>98</v>
+    <row r="21" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>75</v>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F21" s="3">
         <v>3600</v>
@@ -1618,21 +1541,21 @@
         <v>9829</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>99</v>
+    <row r="22" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>75</v>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F22" s="3">
         <v>4300</v>
@@ -1644,21 +1567,21 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>100</v>
+    <row r="23" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>75</v>
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F23" s="3">
         <v>3900</v>
@@ -1670,21 +1593,21 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>101</v>
+    <row r="24" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>75</v>
+      <c r="D24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="3">
         <v>3700</v>
@@ -1696,21 +1619,21 @@
         <v>6442</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>102</v>
+    <row r="25" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>77</v>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F25" s="3">
         <v>3800</v>
@@ -1722,21 +1645,21 @@
         <v>11548</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>103</v>
+    <row r="26" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>77</v>
+      <c r="D26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F26" s="3">
         <v>3500</v>
@@ -1748,21 +1671,21 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>104</v>
+    <row r="27" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>77</v>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F27" s="3">
         <v>4100</v>
@@ -1774,21 +1697,21 @@
         <v>7740</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>105</v>
+    <row r="28" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>75</v>
+      <c r="D28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F28" s="3">
         <v>5000</v>
@@ -1800,21 +1723,21 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>106</v>
+    <row r="29" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>75</v>
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F29" s="3">
         <v>4200</v>
@@ -1826,21 +1749,21 @@
         <v>5207</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>107</v>
+    <row r="30" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>75</v>
+      <c r="D30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F30" s="3">
         <v>4900</v>
@@ -1852,21 +1775,21 @@
         <v>10237</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>108</v>
+    <row r="31" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>78</v>
+      <c r="D31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F31" s="3">
         <v>3500</v>
@@ -1878,21 +1801,21 @@
         <v>10502</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>109</v>
+    <row r="32" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>78</v>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F32" s="3">
         <v>4800</v>
@@ -1904,21 +1827,21 @@
         <v>9197</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>110</v>
+    <row r="33" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>78</v>
+      <c r="D33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F33" s="3">
         <v>5000</v>
@@ -1930,21 +1853,21 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A34" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>111</v>
+    <row r="34" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>78</v>
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F34" s="3">
         <v>3500</v>
@@ -1956,21 +1879,21 @@
         <v>8531</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>112</v>
+    <row r="35" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>78</v>
+      <c r="D35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F35" s="3">
         <v>5000</v>
@@ -1982,21 +1905,21 @@
         <v>12047</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A36" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>113</v>
+    <row r="36" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>78</v>
+      <c r="D36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F36" s="3">
         <v>3600</v>
@@ -2008,21 +1931,21 @@
         <v>8130</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>114</v>
+    <row r="37" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>78</v>
+      <c r="D37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F37" s="3">
         <v>4000</v>
@@ -2034,21 +1957,21 @@
         <v>7216</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A38" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>115</v>
+    <row r="38" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>75</v>
+      <c r="D38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F38" s="3">
         <v>4500</v>
@@ -2060,21 +1983,21 @@
         <v>12350</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>116</v>
+    <row r="39" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>75</v>
+      <c r="D39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F39" s="3">
         <v>3500</v>
@@ -2086,21 +2009,21 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>117</v>
+    <row r="40" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>75</v>
+      <c r="D40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F40" s="3">
         <v>4600</v>
@@ -2112,21 +2035,21 @@
         <v>5678</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A41" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>118</v>
+    <row r="41" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>75</v>
+      <c r="D41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F41" s="3">
         <v>4900</v>
@@ -2138,21 +2061,21 @@
         <v>10568</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>119</v>
+    <row r="42" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>78</v>
+      <c r="D42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F42" s="3">
         <v>5000</v>
@@ -2164,21 +2087,21 @@
         <v>6350</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>120</v>
+    <row r="43" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>78</v>
+      <c r="D43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F43" s="3">
         <v>3700</v>
@@ -2190,21 +2113,21 @@
         <v>10984</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>121</v>
+    <row r="44" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>78</v>
+      <c r="D44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F44" s="3">
         <v>4800</v>
@@ -2216,21 +2139,21 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A45" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>122</v>
+    <row r="45" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>78</v>
+      <c r="D45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F45" s="3">
         <v>3500</v>
@@ -2242,21 +2165,21 @@
         <v>7327</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A46" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>123</v>
+    <row r="46" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>78</v>
+      <c r="D46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F46" s="3">
         <v>4500</v>
@@ -2268,21 +2191,21 @@
         <v>11963</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A47" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>124</v>
+    <row r="47" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>78</v>
+      <c r="D47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F47" s="3">
         <v>3500</v>
@@ -2294,21 +2217,21 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A48" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>125</v>
+    <row r="48" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>75</v>
+      <c r="D48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F48" s="3">
         <v>4900</v>
@@ -2320,21 +2243,21 @@
         <v>6488</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A49" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>126</v>
+    <row r="49" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>75</v>
+      <c r="D49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F49" s="3">
         <v>4100</v>
@@ -2346,21 +2269,21 @@
         <v>9185</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A50" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>127</v>
+    <row r="50" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>78</v>
+      <c r="D50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F50" s="3">
         <v>4800</v>
@@ -2384,25 +2307,25 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="4.90625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" style="6"/>
-    <col min="10" max="11" width="8.54296875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="7.26953125" style="6"/>
+    <col min="1" max="1" width="6.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="5"/>
+    <col min="10" max="11" width="8.5546875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="7.21875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1">
+    <row r="1" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2434,18 +2357,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>79</v>
+    <row r="2" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>75</v>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E2" s="3">
         <v>5000</v>
@@ -2456,25 +2379,29 @@
       <c r="G2" s="3">
         <v>11564</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>80</v>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5">
+        <f>_xlfn.XLOOKUP(J2,H:H,G:G)</f>
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>75</v>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E3" s="3">
         <v>6000</v>
@@ -2485,22 +2412,22 @@
       <c r="G3" s="3">
         <v>9858</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>81</v>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E4" s="3">
         <v>5500</v>
@@ -2511,22 +2438,22 @@
       <c r="G4" s="3">
         <v>11049</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>82</v>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>75</v>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="3">
         <v>5000</v>
@@ -2537,22 +2464,22 @@
       <c r="G5" s="3">
         <v>11433</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>83</v>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>75</v>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E6" s="3">
         <v>4500</v>
@@ -2563,22 +2490,22 @@
       <c r="G6" s="3">
         <v>7394</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>84</v>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>75</v>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E7" s="3">
         <v>4000</v>
@@ -2589,22 +2516,22 @@
       <c r="G7" s="3">
         <v>11630</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>85</v>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>76</v>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E8" s="3">
         <v>3800</v>
@@ -2615,22 +2542,22 @@
       <c r="G8" s="3">
         <v>11473</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>86</v>
+      <c r="H8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>76</v>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E9" s="3">
         <v>3600</v>
@@ -2641,22 +2568,22 @@
       <c r="G9" s="3">
         <v>10359</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>87</v>
+      <c r="H9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>76</v>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E10" s="3">
         <v>3700</v>
@@ -2667,22 +2594,22 @@
       <c r="G10" s="3">
         <v>4749</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>88</v>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>76</v>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="3">
         <v>3500</v>
@@ -2693,22 +2620,22 @@
       <c r="G11" s="3">
         <v>9393</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>89</v>
+      <c r="H11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>76</v>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E12" s="3">
         <v>3900</v>
@@ -2719,22 +2646,22 @@
       <c r="G12" s="3">
         <v>7349</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>90</v>
+      <c r="H12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>76</v>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E13" s="3">
         <v>3500</v>
@@ -2745,22 +2672,22 @@
       <c r="G13" s="3">
         <v>9047</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>91</v>
+      <c r="H13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>77</v>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="3">
         <v>3300</v>
@@ -2771,22 +2698,22 @@
       <c r="G14" s="3">
         <v>8771</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>92</v>
+      <c r="H14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>77</v>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E15" s="3">
         <v>3200</v>
@@ -2797,22 +2724,22 @@
       <c r="G15" s="3">
         <v>5122</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>93</v>
+      <c r="H15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>77</v>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E16" s="3">
         <v>3000</v>
@@ -2823,22 +2750,22 @@
       <c r="G16" s="3">
         <v>4462</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>94</v>
+      <c r="H16" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>75</v>
+      <c r="C17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E17" s="3">
         <v>4400</v>
@@ -2849,22 +2776,22 @@
       <c r="G17" s="3">
         <v>9532</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>95</v>
+      <c r="H17" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>75</v>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E18" s="3">
         <v>3600</v>
@@ -2875,22 +2802,22 @@
       <c r="G18" s="3">
         <v>9783</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>96</v>
+      <c r="H18" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>75</v>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E19" s="3">
         <v>4200</v>
@@ -2901,64 +2828,53 @@
       <c r="G19" s="3">
         <v>8036</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D20" s="11"/>
-      <c r="E20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D21" s="11"/>
-      <c r="E21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D22" s="11"/>
-      <c r="E22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D23" s="11"/>
-      <c r="E23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D24" s="11"/>
-      <c r="E24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D25" s="11"/>
-      <c r="E25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D26" s="11"/>
-      <c r="E26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D27" s="11"/>
-      <c r="E27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D28" s="11"/>
-      <c r="E28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D29" s="11"/>
-      <c r="E29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="19.95" customHeight="1">
-      <c r="D30" s="11"/>
-      <c r="E30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="H19" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D20" s="8"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D21" s="8"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D22" s="8"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D23" s="8"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D24" s="8"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D25" s="8"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D26" s="8"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D27" s="8"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D28" s="8"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D29" s="8"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="D30" s="8"/>
+      <c r="H30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2971,12 +2887,12 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3011,21 +2927,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999">
-      <c r="A2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>79</v>
+    <row r="2" spans="1:12" ht="17.25">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>75</v>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="3">
         <v>5000</v>
@@ -3040,29 +2956,29 @@
       <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="9" t="str" cm="1">
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP(J2&amp;K2,C1:C20&amp;D1:D20,A1:A20)</f>
         <v>DW0001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999">
-      <c r="A3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>80</v>
+    <row r="3" spans="1:12" ht="17.25">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="3">
         <v>6000</v>
@@ -3075,21 +2991,21 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>81</v>
+    <row r="4" spans="1:12" ht="17.25">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>75</v>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="3">
         <v>5500</v>
@@ -3102,21 +3018,21 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999">
-      <c r="A5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>82</v>
+    <row r="5" spans="1:12" ht="17.25">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>75</v>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="3">
         <v>5000</v>
@@ -3129,21 +3045,21 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>83</v>
+    <row r="6" spans="1:12" ht="17.25">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>75</v>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="3">
         <v>4500</v>
@@ -3156,21 +3072,21 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>84</v>
+    <row r="7" spans="1:12" ht="17.25">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>75</v>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="3">
         <v>4000</v>
@@ -3183,21 +3099,21 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999">
-      <c r="A8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>85</v>
+    <row r="8" spans="1:12" ht="17.25">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="3">
         <v>3800</v>
@@ -3210,21 +3126,21 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>86</v>
+    <row r="9" spans="1:12" ht="17.25">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>76</v>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="3">
         <v>3600</v>
@@ -3237,21 +3153,21 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999">
-      <c r="A10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>87</v>
+    <row r="10" spans="1:12" ht="17.25">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="3">
         <v>3700</v>
@@ -3264,21 +3180,21 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999">
-      <c r="A11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>88</v>
+    <row r="11" spans="1:12" ht="17.25">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="3">
         <v>3500</v>
@@ -3291,21 +3207,21 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999">
-      <c r="A12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>89</v>
+    <row r="12" spans="1:12" ht="17.25">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>76</v>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="3">
         <v>3900</v>
@@ -3318,21 +3234,21 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999">
-      <c r="A13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>90</v>
+    <row r="13" spans="1:12" ht="17.25">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="3">
         <v>3500</v>
@@ -3345,21 +3261,21 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999">
-      <c r="A14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>91</v>
+    <row r="14" spans="1:12" ht="17.25">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>77</v>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="3">
         <v>3300</v>
@@ -3372,21 +3288,21 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999">
-      <c r="A15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>92</v>
+    <row r="15" spans="1:12" ht="17.25">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>77</v>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F15" s="3">
         <v>3200</v>
@@ -3399,21 +3315,21 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.399999999999999">
-      <c r="A16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>93</v>
+    <row r="16" spans="1:12" ht="17.25">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>77</v>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="3">
         <v>3000</v>
@@ -3426,21 +3342,21 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.399999999999999">
-      <c r="A17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>94</v>
+    <row r="17" spans="1:8" ht="17.25">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="3">
         <v>4400</v>
@@ -3453,21 +3369,21 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.399999999999999">
-      <c r="A18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>95</v>
+    <row r="18" spans="1:8" ht="17.25">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>75</v>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="3">
         <v>3600</v>
@@ -3480,21 +3396,21 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.399999999999999">
-      <c r="A19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>96</v>
+    <row r="19" spans="1:8" ht="17.25">
+      <c r="A19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>75</v>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="3">
         <v>4200</v>
@@ -3507,21 +3423,21 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.399999999999999">
-      <c r="A20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>97</v>
+    <row r="20" spans="1:8" ht="17.25">
+      <c r="A20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="3">
         <v>4700</v>
@@ -3545,15 +3461,15 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3578,28 +3494,28 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>128</v>
+      <c r="K1" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999">
-      <c r="A2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>79</v>
+    <row r="2" spans="1:12" ht="17.25">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>75</v>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="3">
         <v>5000</v>
@@ -3611,29 +3527,29 @@
         <f>F2+G2</f>
         <v>6700</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="str">
-        <f>_xlfn.XLOOKUP("*"&amp;K2,A2:A20,B2:B20,,2)</f>
+      <c r="K2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f>_xlfn.XLOOKUP("DW"&amp;K2,A2:A20,B2:B20,,-1)</f>
         <v>姓名1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999">
-      <c r="A3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>80</v>
+    <row r="3" spans="1:12" ht="17.25">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="3">
         <v>6000</v>
@@ -3646,21 +3562,21 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>81</v>
+    <row r="4" spans="1:12" ht="17.25">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>75</v>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="3">
         <v>5500</v>
@@ -3673,21 +3589,21 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999">
-      <c r="A5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>82</v>
+    <row r="5" spans="1:12" ht="17.25">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>75</v>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="3">
         <v>5000</v>
@@ -3700,21 +3616,21 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>83</v>
+    <row r="6" spans="1:12" ht="17.25">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>75</v>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="3">
         <v>4500</v>
@@ -3727,21 +3643,21 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>84</v>
+    <row r="7" spans="1:12" ht="17.25">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>75</v>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="3">
         <v>4000</v>
@@ -3754,21 +3670,21 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999">
-      <c r="A8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>85</v>
+    <row r="8" spans="1:12" ht="17.25">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="3">
         <v>3800</v>
@@ -3781,21 +3697,21 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>86</v>
+    <row r="9" spans="1:12" ht="17.25">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>76</v>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="3">
         <v>3600</v>
@@ -3808,21 +3724,21 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999">
-      <c r="A10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>87</v>
+    <row r="10" spans="1:12" ht="17.25">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="3">
         <v>3700</v>
@@ -3835,21 +3751,21 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999">
-      <c r="A11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>88</v>
+    <row r="11" spans="1:12" ht="17.25">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="3">
         <v>3500</v>
@@ -3862,21 +3778,21 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999">
-      <c r="A12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>89</v>
+    <row r="12" spans="1:12" ht="17.25">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>76</v>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="3">
         <v>3900</v>
@@ -3889,21 +3805,21 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999">
-      <c r="A13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>90</v>
+    <row r="13" spans="1:12" ht="17.25">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="3">
         <v>3500</v>
@@ -3916,21 +3832,21 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999">
-      <c r="A14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>91</v>
+    <row r="14" spans="1:12" ht="17.25">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>77</v>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="3">
         <v>3300</v>
@@ -3943,21 +3859,21 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999">
-      <c r="A15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>92</v>
+    <row r="15" spans="1:12" ht="17.25">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>77</v>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F15" s="3">
         <v>3200</v>
@@ -3970,21 +3886,21 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.399999999999999">
-      <c r="A16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>93</v>
+    <row r="16" spans="1:12" ht="17.25">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>77</v>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="3">
         <v>3000</v>
@@ -3997,21 +3913,21 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.399999999999999">
-      <c r="A17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>94</v>
+    <row r="17" spans="1:8" ht="17.25">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="3">
         <v>4400</v>
@@ -4024,21 +3940,21 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.399999999999999">
-      <c r="A18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>95</v>
+    <row r="18" spans="1:8" ht="17.25">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>75</v>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="3">
         <v>3600</v>
@@ -4051,21 +3967,21 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.399999999999999">
-      <c r="A19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>96</v>
+    <row r="19" spans="1:8" ht="17.25">
+      <c r="A19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>75</v>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="3">
         <v>4200</v>
@@ -4078,21 +3994,21 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.399999999999999">
-      <c r="A20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>97</v>
+    <row r="20" spans="1:8" ht="17.25">
+      <c r="A20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="3">
         <v>4700</v>
@@ -4116,18 +4032,18 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4147,394 +4063,394 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999">
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="2">
         <v>44197</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>79</v>
+      <c r="B2" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>75</v>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="3">
         <v>29492</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>84</v>
+      <c r="H2" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="I2">
         <f>_xlfn.XLOOKUP(H2,B1:B20,F1:F20,0,0,-1)</f>
         <v>45425</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999">
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3" s="2">
         <v>44198</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>80</v>
+      <c r="B3" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="3">
         <v>26420</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999">
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4" s="2">
         <v>44199</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>81</v>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>75</v>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="3">
         <v>12019</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999">
+    <row r="5" spans="1:9" ht="17.25">
       <c r="A5" s="2">
         <v>44200</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>82</v>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>75</v>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="3">
         <v>36987</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.399999999999999">
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="2">
         <v>44201</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>83</v>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>75</v>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="3">
         <v>43863</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.399999999999999">
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7" s="2">
         <v>44202</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="4">
         <v>40463</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.399999999999999">
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8" s="2">
         <v>44203</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>85</v>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="3">
         <v>44315</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="2">
         <v>44204</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>86</v>
+      <c r="B9" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>76</v>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="3">
         <v>46814</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999">
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" s="2">
         <v>44205</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>87</v>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="3">
         <v>18522</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.399999999999999">
+    <row r="11" spans="1:9" ht="17.25">
       <c r="A11" s="2">
         <v>44206</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>88</v>
+      <c r="B11" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="3">
         <v>46075</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.399999999999999">
+    <row r="12" spans="1:9" ht="17.25">
       <c r="A12" s="2">
         <v>44207</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>89</v>
+      <c r="B12" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>76</v>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="3">
         <v>21912</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.399999999999999">
+    <row r="13" spans="1:9" ht="17.25">
       <c r="A13" s="2">
         <v>44208</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>90</v>
+      <c r="B13" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="3">
         <v>14090</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.399999999999999">
+    <row r="14" spans="1:9" ht="17.25">
       <c r="A14" s="2">
         <v>44209</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>91</v>
+      <c r="B14" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>77</v>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="3">
         <v>23092</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.399999999999999">
+    <row r="15" spans="1:9" ht="17.25">
       <c r="A15" s="2">
         <v>44210</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>92</v>
+      <c r="B15" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>77</v>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F15" s="3">
         <v>49361</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.399999999999999">
+    <row r="16" spans="1:9" ht="17.25">
       <c r="A16" s="2">
         <v>44211</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>93</v>
+      <c r="B16" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>77</v>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="3">
         <v>42154</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999">
+    <row r="17" spans="1:6" ht="17.25">
       <c r="A17" s="2">
         <v>44212</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>94</v>
+      <c r="B17" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="3">
         <v>22711</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999">
+    <row r="18" spans="1:6" ht="17.25">
       <c r="A18" s="2">
         <v>44213</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>95</v>
+      <c r="B18" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>75</v>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="3">
         <v>47978</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999">
+    <row r="19" spans="1:6" ht="17.25">
       <c r="A19" s="2">
         <v>44214</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>96</v>
+      <c r="B19" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>75</v>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="3">
         <v>13180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999">
+    <row r="20" spans="1:6" ht="17.25">
       <c r="A20" s="2">
         <v>44215</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="4">
         <v>45425</v>
       </c>
     </row>
@@ -4548,19 +4464,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4580,397 +4496,417 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999">
+      <c r="I1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="2">
         <v>44197</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>79</v>
+      <c r="B2" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>75</v>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="3">
         <v>29492</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.399999999999999">
+      <c r="H2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.XLOOKUP(H2,B:B,F:F)</f>
+        <v>26420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3" s="2">
         <v>44198</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>75</v>
+      <c r="B3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="3">
         <v>26420</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.399999999999999">
+      <c r="H3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="0">_xlfn.XLOOKUP(H3,B:B,F:F)</f>
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4" s="2">
         <v>44199</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>75</v>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="3">
         <v>12019</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.399999999999999">
+      <c r="H4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>46814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25">
       <c r="A5" s="2">
         <v>44200</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>75</v>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="3">
         <v>36987</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.399999999999999">
+      <c r="H5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>49361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="2">
         <v>44201</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>75</v>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="3">
         <v>43863</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.399999999999999">
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">MAX(_xlfn.XLOOKUP(H2:H5,B:B,F:F))</f>
+        <v>49361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7" s="2">
         <v>44202</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>75</v>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="3">
         <v>40463</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.399999999999999">
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8" s="2">
         <v>44203</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>76</v>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="3">
         <v>44315</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="2">
         <v>44204</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>76</v>
+      <c r="B9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="3">
         <v>46814</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999">
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" s="2">
         <v>44205</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>76</v>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="3">
         <v>18522</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.399999999999999">
+    <row r="11" spans="1:9" ht="17.25">
       <c r="A11" s="2">
         <v>44206</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>76</v>
+      <c r="B11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="3">
         <v>46075</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.399999999999999">
+    <row r="12" spans="1:9" ht="17.25">
       <c r="A12" s="2">
         <v>44207</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>76</v>
+      <c r="B12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="3">
         <v>21912</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.399999999999999">
+    <row r="13" spans="1:9" ht="17.25">
       <c r="A13" s="2">
         <v>44208</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>76</v>
+      <c r="B13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="3">
         <v>14090</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.399999999999999">
+    <row r="14" spans="1:9" ht="17.25">
       <c r="A14" s="2">
         <v>44209</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>77</v>
+      <c r="B14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="3">
         <v>23092</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.399999999999999">
+    <row r="15" spans="1:9" ht="17.25">
       <c r="A15" s="2">
         <v>44210</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>77</v>
+      <c r="B15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F15" s="3">
         <v>49361</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.399999999999999">
+    <row r="16" spans="1:9" ht="17.25">
       <c r="A16" s="2">
         <v>44211</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>77</v>
+      <c r="B16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="3">
         <v>42154</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999">
+    <row r="17" spans="1:6" ht="17.25">
       <c r="A17" s="2">
         <v>44212</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>75</v>
+      <c r="B17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="3">
         <v>22711</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999">
+    <row r="18" spans="1:6" ht="17.25">
       <c r="A18" s="2">
         <v>44213</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>75</v>
+      <c r="B18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="3">
         <v>47978</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999">
+    <row r="19" spans="1:6" ht="17.25">
       <c r="A19" s="2">
         <v>44214</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>75</v>
+      <c r="B19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="3">
         <v>13180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999">
+    <row r="20" spans="1:6" ht="17.25">
       <c r="A20" s="2">
         <v>44215</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>75</v>
+      <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="3">
         <v>45425</v>
@@ -4986,93 +4922,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.453125" customWidth="1"/>
+    <col min="1" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1">
+    <row r="1" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A5" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5080,14 +5016,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1">
+    <row r="6" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
